--- a/Writeup/ExpData.xlsx
+++ b/Writeup/ExpData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>$t$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +30,22 @@
   </si>
   <si>
     <t>$Comp$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\gamma$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\beta$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$|U|$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prob.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -83,16 +100,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -645,4 +703,91 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8109</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.99319999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8050</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8009</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.98219999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7948</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.97509999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>